--- a/data/long_razon/P23_9-Edad-long_razon.xlsx
+++ b/data/long_razon/P23_9-Edad-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-57,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>29,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-46,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-51,87%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-34,83; 88,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-79,07; -19,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,67; 112,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-68,69; -11,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,9; 75,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-68,16; -29,09</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>76,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-34,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>40,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-16,98%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,69; 203,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-60,22; 7,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,79; 69,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,43; 55,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 104,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,8; 10,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-18,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-12,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>48,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,53%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-44,02; 18,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-39,46; 26,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,64; 108,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 44,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-16,31; 36,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,97; 26,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-29,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>92,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>54,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-16,64%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 76,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-48,73; -4,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,81; 172,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,02; 28,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,51; 97,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,34; 1,03</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -921,32 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>40,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>65,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>51,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 109,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-26,8; 38,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,68; 151,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-18,5; 57,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,96; 97,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,96; 32,84</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>105,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-26,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>45,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-31,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>69,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-28,83%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>24,87; 238,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-48,61; 9,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 131,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-55,9; -1,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,98; 134,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-46,17; -9,12</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>28,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-25,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>49,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-7,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>38,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-17,11%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1119,47 +1564,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,8; 54,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-37,2; -12,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28,68; 74,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 4,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,31; 57,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-26,24; -7,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P23_9-Edad-long_razon.xlsx
+++ b/data/long_razon/P23_9-Edad-long_razon.xlsx
@@ -659,18 +659,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.1000130328072716</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.6085436741962774</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.2705594322805778</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.638692851639334</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.331721235749336</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.4867988873385275</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.019583643343021</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.314082271341285</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.08093645674384042</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>-0.5466920581920477</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.1208256386020302</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.4857783364971039</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -679,18 +703,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.5226755716023929</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.7960154013087994</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.3980085146734221</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.2312839327791274</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.1958088152977318</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.7003672892901229</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.4241836651937465</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.3742181308463759</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.297155438516298</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.7066773400380026</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.3016545490402935</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.1245968111086654</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -699,18 +747,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.4757524235809538</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-0.2462010510489765</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.214951390081563</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.992228526869337</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.144598083652002</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-0.1171404575315213</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.7355933596425432</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>1.623809186124919</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.5220759519906532</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>-0.3081035526017529</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.837040232482655</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>1.547828054916704</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,18 +795,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.8736619993423476</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.3787296078028392</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.2455207121656131</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.4797405299530652</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.1742451416136194</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.119597010399676</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.5138113456883884</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.04211197421351023</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.4675355705259338</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>-0.1852021925308147</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.3582945208209152</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.1642317845422297</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -743,18 +839,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>0.1229248558854537</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.6308860620309164</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.7030168044157934</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.4583592999025984</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.2151115910970402</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.2257006458076115</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.7060919985953925</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.4372256380802834</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>0.05007256260824852</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.4357210350852994</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.6239247631676159</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.3063814534301533</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -763,18 +883,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>2.295589399780237</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.01883519408364548</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.9615878832329676</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.38500623845688</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.7562467455389623</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.5656053229070627</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>-0.2006771936143877</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.5399499282800293</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>1.021445572156503</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.1142021170259327</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.3698743210736508</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.9709755673843258</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -787,18 +931,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.1949360769791447</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.1337241828043474</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.04648948361297076</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.5052105303920096</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.4573421397375406</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.1146204979215586</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.6929511394598014</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.4045772577197793</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.06028722294937013</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>-0.01706891751855069</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.4537443018185398</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>-0.06182333274444451</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -807,18 +975,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.4770311805453492</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.4059590918212431</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.3517126573493561</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.1202216424682289</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.05508231788770766</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.1361082264027692</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.7917722711192496</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.6239725848622206</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.1896318403325027</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.2197913544321099</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.5906977367709318</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.3311073764659247</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -827,18 +1019,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.110262674229039</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.3061062652635456</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.4182669457883917</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.519205525212661</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.9941124283206064</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.4867904676682644</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>-0.5489106414734934</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>-0.07539799413370536</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.3800849337428761</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.2245603438897703</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>-0.2815227192477086</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.310519633510274</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -851,18 +1067,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.2745940752632032</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.2891171597860778</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.1670688854643489</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.2212774526862555</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.90809069360224</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.01038790908313107</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.4990611226527347</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.1016823741841237</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.5625975062777955</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>-0.1549352245665086</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.3590904373693939</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>-0.1752128372330615</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -871,18 +1111,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.1155366986008172</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.4902870173395543</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.4451686179265304</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.5310156606842467</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.4317622309172313</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.2254217027647091</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.6397675594636968</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.4427202875531572</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0.2300356469647552</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.3132453292067958</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.5071924180383734</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.4295681402980677</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -891,18 +1155,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.7646016382761618</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-0.03863247324969084</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.4170635741149391</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.3324833058536263</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.669874745955066</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.2621677995033481</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>-0.3350891741262572</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.4317580348396916</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.9268917515379912</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.002586125735432678</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>-0.1131422869979012</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.1352782285036956</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -915,18 +1203,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>0.4019856220364116</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.01841390129223969</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.580920045964612</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-0.3271138247894657</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.7444208891162989</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0.08882411644013488</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>-0.3077756027158947</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0.2038753084998972</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>0.5416682819355122</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>0.0534048216547871</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>-0.4522565610474917</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>-0.09119584578259182</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -935,18 +1247,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.02799084035424504</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.273858169216966</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.7432943761463896</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.6111833834589644</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>0.1558444540711448</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.2042353804132465</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>-0.5576713272098572</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.1627928745441474</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>0.1741276640299499</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.1736329585312207</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.5846769703005097</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>-0.3367611435317744</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -955,18 +1291,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>1.067641942797679</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.3960586080032727</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-0.3323451242107224</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.05586653973320128</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>1.645237042845192</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>0.5212570304630653</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>0.01758144051295593</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>0.8646790236741084</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0.9986131276531103</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0.3132988828275082</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>-0.2681596932870758</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>0.267441511441191</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -979,18 +1339,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>0.9969482890329561</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-0.2971240174245121</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-0.5156925773303473</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-0.3320297233732507</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>0.4604520383263885</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>-0.319129064772541</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>0.1031574148928545</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>0.03147468448744944</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>0.6797377960153503</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>-0.3079442630682882</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>-0.2021343796165917</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>-0.1561835507250617</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -999,18 +1383,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>0.2178982011405967</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.5215792448491672</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.7458782026178618</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.6722091873695336</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.05608608003486063</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.5359272168642502</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>-0.2911661740795675</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.5032033742499716</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>0.2280562286442978</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>-0.4868067212182474</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>-0.4324670086858718</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>-0.4846216207905783</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1019,18 +1427,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>2.320159059188101</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>0.01608601890321621</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>-0.1352221277451569</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0.1737600358489979</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>1.279932567958721</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>-0.006492845970460664</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>0.6988984524477782</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>1.2380381997451</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>1.367686491113109</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>-0.09306828756925932</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>0.1162415147720474</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>0.3274603659542508</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1043,18 +1475,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>0.2478238624043393</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.2777236680962773</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.2646632744021074</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.02175390981178163</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.5113578540607912</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-0.08318210614959594</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>-0.3726452566720588</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>-0.0521263936717677</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>0.3703213334852514</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>-0.1858839715662814</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>-0.3224959575758928</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>-0.0151495943236463</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1063,18 +1519,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>0.0359862202392586</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.3823841922665761</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.422837614612124</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.1888619172134716</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.3123935776906444</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-0.1901883424907884</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>-0.479042137892059</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.2359889930553687</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>0.2132924176024904</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>-0.2734879492376376</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>-0.4097999976706722</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>-0.1804249588905871</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1083,18 +1563,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>0.4922453978388775</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-0.1411750590341772</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-0.01194237203587453</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.3343780600179392</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.7995014568359047</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0.0505327707605295</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>-0.2537912206555298</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.1774001720196494</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>0.5516234069134477</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>-0.09836290613240936</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>-0.1979779868132172</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.1561268808372232</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
